--- a/data/wcdsc.xlsx
+++ b/data/wcdsc.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$F$73</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="67">
   <si>
     <t>电站名称</t>
   </si>
@@ -34,214 +34,190 @@
     <t>未充电时长(小时)</t>
   </si>
   <si>
+    <t>104号直流</t>
+  </si>
+  <si>
+    <t>长沙特来电飞狐四方坪西区充电站</t>
+  </si>
+  <si>
+    <t>502号直流</t>
+  </si>
+  <si>
+    <t>长沙特来电飞狐四方坪南区充电站</t>
+  </si>
+  <si>
+    <t>304号直流</t>
+  </si>
+  <si>
+    <t>201号直流</t>
+  </si>
+  <si>
+    <t>长沙特来电飞狐四方坪东区充电站</t>
+  </si>
+  <si>
+    <t>001A号直流</t>
+  </si>
+  <si>
+    <t>103号直流</t>
+  </si>
+  <si>
+    <t>701号直流</t>
+  </si>
+  <si>
+    <t>505号直流</t>
+  </si>
+  <si>
+    <t>B02号直流</t>
+  </si>
+  <si>
+    <t>604号直流</t>
+  </si>
+  <si>
+    <t>503号直流</t>
+  </si>
+  <si>
+    <t>504号直流</t>
+  </si>
+  <si>
+    <t>401号直流</t>
+  </si>
+  <si>
+    <t>101号直流</t>
+  </si>
+  <si>
+    <t>306号直流</t>
+  </si>
+  <si>
+    <t>002A号直流</t>
+  </si>
+  <si>
+    <t>903号直流</t>
+  </si>
+  <si>
+    <t>A02号直流</t>
+  </si>
+  <si>
+    <t>901号直流</t>
+  </si>
+  <si>
+    <t>801号直流</t>
+  </si>
+  <si>
+    <t>904号直流</t>
+  </si>
+  <si>
+    <t>602号直流</t>
+  </si>
+  <si>
+    <t>406号直流</t>
+  </si>
+  <si>
+    <t>105号直流</t>
+  </si>
+  <si>
+    <t>402号直流</t>
+  </si>
+  <si>
+    <t>一直未充电时间</t>
+  </si>
+  <si>
+    <t>003B号直流</t>
+  </si>
+  <si>
+    <t>702号直流</t>
+  </si>
+  <si>
+    <t>106号直流</t>
+  </si>
+  <si>
+    <t>B04号直流</t>
+  </si>
+  <si>
+    <t>905号直流</t>
+  </si>
+  <si>
+    <t>102号直流</t>
+  </si>
+  <si>
+    <t>705号直流</t>
+  </si>
+  <si>
+    <t>404号直流</t>
+  </si>
+  <si>
+    <t>A04号直流</t>
+  </si>
+  <si>
+    <t>203号直流</t>
+  </si>
+  <si>
+    <t>403号直流</t>
+  </si>
+  <si>
+    <t>405号直流</t>
+  </si>
+  <si>
+    <t>002B号直流</t>
+  </si>
+  <si>
+    <t>802号直流</t>
+  </si>
+  <si>
+    <t>B05号直流</t>
+  </si>
+  <si>
+    <t>205号直流</t>
+  </si>
+  <si>
+    <t>803号直流</t>
+  </si>
+  <si>
     <t>长沙市开福区高岭香江国际城充电站建设项目</t>
   </si>
   <si>
-    <t>104号直流</t>
-  </si>
-  <si>
-    <t>长沙特来电飞狐四方坪西区充电站</t>
-  </si>
-  <si>
-    <t>502号直流</t>
-  </si>
-  <si>
-    <t>长沙特来电飞狐四方坪南区充电站</t>
-  </si>
-  <si>
-    <t>304号直流</t>
-  </si>
-  <si>
-    <t>201号直流</t>
-  </si>
-  <si>
-    <t>长沙特来电飞狐四方坪东区充电站</t>
-  </si>
-  <si>
-    <t>001A号直流</t>
-  </si>
-  <si>
-    <t>103号直流</t>
-  </si>
-  <si>
-    <t>603号直流</t>
-  </si>
-  <si>
-    <t>701号直流</t>
-  </si>
-  <si>
-    <t>505号直流</t>
-  </si>
-  <si>
-    <t>B02号直流</t>
-  </si>
-  <si>
-    <t>604号直流</t>
-  </si>
-  <si>
-    <t>503号直流</t>
-  </si>
-  <si>
-    <t>504号直流</t>
-  </si>
-  <si>
-    <t>401号直流</t>
-  </si>
-  <si>
-    <t>101号直流</t>
-  </si>
-  <si>
-    <t>306号直流</t>
-  </si>
-  <si>
-    <t>002A号直流</t>
-  </si>
-  <si>
-    <t>903号直流</t>
-  </si>
-  <si>
-    <t>109号直流</t>
-  </si>
-  <si>
-    <t>805号直流</t>
-  </si>
-  <si>
-    <t>A02号直流</t>
-  </si>
-  <si>
-    <t>901号直流</t>
+    <t>107号直流</t>
+  </si>
+  <si>
+    <t>111号直流</t>
+  </si>
+  <si>
+    <t>204号直流</t>
+  </si>
+  <si>
+    <t>206号直流</t>
+  </si>
+  <si>
+    <t>108号直流</t>
+  </si>
+  <si>
+    <t>601号直流</t>
+  </si>
+  <si>
+    <t>B01号直流</t>
+  </si>
+  <si>
+    <t>902号直流</t>
+  </si>
+  <si>
+    <t>A01号直流</t>
+  </si>
+  <si>
+    <t>006B号直流</t>
+  </si>
+  <si>
+    <t>A03号直流</t>
+  </si>
+  <si>
+    <t>305号直流</t>
   </si>
   <si>
     <t>303号直流</t>
   </si>
   <si>
-    <t>801号直流</t>
-  </si>
-  <si>
-    <t>904号直流</t>
-  </si>
-  <si>
-    <t>602号直流</t>
-  </si>
-  <si>
-    <t>406号直流</t>
-  </si>
-  <si>
-    <t>208号直流</t>
-  </si>
-  <si>
-    <t>B03号直流</t>
-  </si>
-  <si>
-    <t>005B号直流</t>
-  </si>
-  <si>
-    <t>105号直流</t>
-  </si>
-  <si>
-    <t>202号直流</t>
-  </si>
-  <si>
-    <t>703号直流</t>
-  </si>
-  <si>
-    <t>402号直流</t>
-  </si>
-  <si>
     <t>302号直流</t>
   </si>
   <si>
-    <t>一直未充电时间</t>
-  </si>
-  <si>
-    <t>003B号直流</t>
-  </si>
-  <si>
-    <t>702号直流</t>
-  </si>
-  <si>
-    <t>106号直流</t>
-  </si>
-  <si>
-    <t>301号直流</t>
-  </si>
-  <si>
-    <t>B04号直流</t>
-  </si>
-  <si>
-    <t>905号直流</t>
-  </si>
-  <si>
-    <t>B01号直流</t>
-  </si>
-  <si>
-    <t>307号直流</t>
-  </si>
-  <si>
-    <t>102号直流</t>
-  </si>
-  <si>
-    <t>705号直流</t>
-  </si>
-  <si>
-    <t>404号直流</t>
-  </si>
-  <si>
-    <t>A04号直流</t>
-  </si>
-  <si>
-    <t>704号直流</t>
-  </si>
-  <si>
-    <t>A05号直流</t>
-  </si>
-  <si>
-    <t>108号直流</t>
-  </si>
-  <si>
-    <t>203号直流</t>
-  </si>
-  <si>
-    <t>A01号直流</t>
-  </si>
-  <si>
-    <t>605号直流</t>
-  </si>
-  <si>
-    <t>403号直流</t>
-  </si>
-  <si>
-    <t>A03号直流</t>
-  </si>
-  <si>
-    <t>110号直流</t>
-  </si>
-  <si>
-    <t>111号直流</t>
-  </si>
-  <si>
-    <t>405号直流</t>
-  </si>
-  <si>
-    <t>002B号直流</t>
-  </si>
-  <si>
-    <t>107号直流</t>
-  </si>
-  <si>
-    <t>802号直流</t>
-  </si>
-  <si>
-    <t>B05号直流</t>
-  </si>
-  <si>
-    <t>204号直流</t>
-  </si>
-  <si>
-    <t>206号直流</t>
-  </si>
-  <si>
-    <t>205号直流</t>
+    <t>011A号直流</t>
   </si>
 </sst>
 </file>
@@ -602,19 +578,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -632,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -640,2338 +616,2338 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
-        <v>45906.578356481485</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45913.004490740743</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>45915.503680555557</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F2">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
-        <v>45907.567233796297</v>
+        <v>45916.28261574074</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>45913.348854166667</v>
+        <v>45920.341481481482</v>
       </c>
       <c r="F3">
-        <v>139</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
-        <v>45904.4453125</v>
+        <v>45911.52857638889</v>
       </c>
       <c r="D4" s="2">
-        <v>45909.56177083333</v>
+        <v>45915.503275462965</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>45908.603506944448</v>
+        <v>45916.534282407411</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>45913.348854166667</v>
+        <v>45920.341481481482</v>
       </c>
       <c r="F5">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
-        <v>45908.550717592596</v>
+        <v>45913.650914351849</v>
       </c>
       <c r="D6" s="2">
-        <v>45913.021585648145</v>
+        <v>45917.025937500002</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>45909.236574074072</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>45913.348854166667</v>
-      </c>
+        <v>45913.052685185183</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45916.265127314815</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
       <c r="C8" s="2">
-        <v>45909.602083333331</v>
+        <v>45917.260844907411</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>45913.348854166667</v>
+        <v>45920.341481481482</v>
       </c>
       <c r="F8">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>45909.053182870368</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45912.756840277776</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>45917.258240740739</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F9">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>45905.534791666665</v>
+        <v>45914.186030092591</v>
       </c>
       <c r="D10" s="2">
-        <v>45909.203703703701</v>
+        <v>45917.006539351853</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>45902.230208333334</v>
+        <v>45910.540219907409</v>
       </c>
       <c r="D11" s="2">
-        <v>45905.834178240744</v>
+        <v>45913.224270833336</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
-        <v>45908.525706018518</v>
+        <v>45912.328969907408</v>
       </c>
       <c r="D12" s="2">
-        <v>45912.034201388888</v>
+        <v>45915.001701388886</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
-        <v>45902.056701388887</v>
+        <v>45910.021134259259</v>
       </c>
       <c r="D13" s="2">
-        <v>45905.500868055555</v>
+        <v>45912.686157407406</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>45905.263715277775</v>
+        <v>45913.006967592592</v>
       </c>
       <c r="D14" s="2">
-        <v>45908.553703703707</v>
+        <v>45915.473703703705</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
-        <v>45906.271747685183</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45909.218194444446</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>45918.06113425926</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F15">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>45907.570555555554</v>
+        <v>45916.041956018518</v>
       </c>
       <c r="D16" s="2">
-        <v>45910.500289351854</v>
+        <v>45918.243055555555</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2">
-        <v>45910.540219907409</v>
+        <v>45910.355798611112</v>
       </c>
       <c r="D17" s="2">
-        <v>45913.224270833336</v>
+        <v>45912.393368055556</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
-        <v>45910.021134259259</v>
+        <v>45911.040381944447</v>
       </c>
       <c r="D18" s="2">
-        <v>45912.686157407406</v>
+        <v>45913.023263888892</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2">
-        <v>45904.095752314817</v>
+        <v>45912.060983796298</v>
       </c>
       <c r="D19" s="2">
-        <v>45906.629687499997</v>
+        <v>45914.012141203704</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
-        <v>45904.238113425927</v>
+        <v>45915.583414351851</v>
       </c>
       <c r="D20" s="2">
-        <v>45906.537569444445</v>
+        <v>45917.582627314812</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>45906.25440972222</v>
+        <v>45910.5781712963</v>
       </c>
       <c r="D21" s="2">
-        <v>45908.543657407405</v>
+        <v>45912.528969907406</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>45902.031944444447</v>
+        <v>45910.561724537038</v>
       </c>
       <c r="D22" s="2">
-        <v>45904.216631944444</v>
+        <v>45912.509375000001</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2">
-        <v>45907.401435185187</v>
+        <v>45914.560046296298</v>
       </c>
       <c r="D23" s="2">
-        <v>45909.52579861111</v>
+        <v>45916.478472222225</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2">
-        <v>45903.0937037037</v>
+        <v>45911.646747685183</v>
       </c>
       <c r="D24" s="2">
-        <v>45905.186064814814</v>
+        <v>45913.523923611108</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
       <c r="C25" s="2">
-        <v>45905.060277777775</v>
+        <v>45911.562384259261</v>
       </c>
       <c r="D25" s="2">
-        <v>45907.134097222224</v>
+        <v>45913.435532407406</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>45908.552488425928</v>
+        <v>45917.638888888891</v>
       </c>
       <c r="D26" s="2">
-        <v>45910.652662037035</v>
+        <v>45919.518240740741</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
-        <v>45910.355798611112</v>
+        <v>45917.219965277778</v>
       </c>
       <c r="D27" s="2">
-        <v>45912.393368055556</v>
+        <v>45919.087418981479</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2">
-        <v>45907.522546296299</v>
+        <v>45917.200092592589</v>
       </c>
       <c r="D28" s="2">
-        <v>45909.570775462962</v>
+        <v>45918.990624999999</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2">
-        <v>45911.040381944447</v>
+        <v>45915.231793981482</v>
       </c>
       <c r="D29" s="2">
-        <v>45913.023263888892</v>
+        <v>45917.019432870373</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2">
-        <v>45908.570474537039</v>
+        <v>45918.238622685189</v>
       </c>
       <c r="D30" s="2">
-        <v>45910.550486111111</v>
+        <v>45920.002534722225</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2">
-        <v>45903.038356481484</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45905.020983796298</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>45918.557500000003</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F31">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2">
-        <v>45902.027557870373</v>
-      </c>
-      <c r="D32" s="2">
-        <v>45904.000578703701</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>45918.603634259256</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F32">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C33" s="2">
-        <v>45910.561724537038</v>
+        <v>45913.23265046296</v>
       </c>
       <c r="D33" s="2">
-        <v>45912.509375000001</v>
+        <v>45914.981087962966</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2">
-        <v>45908.082407407404</v>
+        <v>45913.76421296296</v>
       </c>
       <c r="D34" s="2">
-        <v>45910.006041666667</v>
+        <v>45915.539942129632</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2">
-        <v>45903.579016203701</v>
+        <v>45914.040277777778</v>
       </c>
       <c r="D35" s="2">
-        <v>45905.501250000001</v>
+        <v>45915.733287037037</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2">
-        <v>45910.5781712963</v>
+        <v>45918.02584490741</v>
       </c>
       <c r="D36" s="2">
-        <v>45912.528969907406</v>
+        <v>45919.731539351851</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2">
-        <v>45906.549328703702</v>
+        <v>45911.531018518515</v>
       </c>
       <c r="D37" s="2">
-        <v>45908.533761574072</v>
+        <v>45913.206875000003</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2">
-        <v>45905.58865740741</v>
-      </c>
-      <c r="D38" s="2">
-        <v>45907.541539351849</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>45918.673472222225</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F38">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2">
-        <v>45906.091840277775</v>
-      </c>
-      <c r="D39" s="2">
-        <v>45908.0002662037</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>45918.715682870374</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F39">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2">
-        <v>45911.52857638889</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2">
-        <v>45913.348854166667</v>
-      </c>
+        <v>45915.111643518518</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45916.694467592592</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2">
-        <v>45903.560266203705</v>
+        <v>45914.486261574071</v>
       </c>
       <c r="D41" s="2">
-        <v>45905.407696759263</v>
+        <v>45916.002962962964</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2">
-        <v>45901.550439814811</v>
+        <v>45910.534502314818</v>
       </c>
       <c r="D42" s="2">
-        <v>45903.3437962963</v>
+        <v>45912.012048611112</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C43" s="2">
-        <v>45904.367662037039</v>
+        <v>45916.051249999997</v>
       </c>
       <c r="D43" s="2">
-        <v>45906.129490740743</v>
+        <v>45917.567256944443</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2">
-        <v>45911.562384259261</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2">
-        <v>45913.348854166667</v>
-      </c>
+        <v>45915.061967592592</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45916.546516203707</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2">
-        <v>45909.261608796296</v>
+        <v>45915.025833333333</v>
       </c>
       <c r="D45" s="2">
-        <v>45911.001076388886</v>
+        <v>45916.511203703703</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2">
-        <v>45909.799317129633</v>
+        <v>45918.539907407408</v>
       </c>
       <c r="D46" s="2">
-        <v>45911.513888888891</v>
+        <v>45920.001921296294</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2">
-        <v>45911.646747685183</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2">
-        <v>45913.348854166667</v>
-      </c>
+        <v>45918.526932870373</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45920.000578703701</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" s="2">
-        <v>45906.348958333336</v>
+        <v>45913.717233796298</v>
       </c>
       <c r="D48" s="2">
-        <v>45908.012199074074</v>
+        <v>45915.203182870369</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2">
-        <v>45911.531018518515</v>
+        <v>45913.566805555558</v>
       </c>
       <c r="D49" s="2">
-        <v>45913.206875000003</v>
+        <v>45915.004942129628</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2">
-        <v>45903.75744212963</v>
+        <v>45918.54587962963</v>
       </c>
       <c r="D50" s="2">
-        <v>45905.312962962962</v>
+        <v>45920.000509259262</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2">
-        <v>45907.705949074072</v>
+        <v>45917.128229166665</v>
       </c>
       <c r="D51" s="2">
-        <v>45909.21980324074</v>
+        <v>45918.609236111108</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C52" s="2">
-        <v>45907.729745370372</v>
+        <v>45912.567314814813</v>
       </c>
       <c r="D52" s="2">
-        <v>45909.231006944443</v>
+        <v>45914.04074074074</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C53" s="2">
-        <v>45903.548900462964</v>
+        <v>45916.059074074074</v>
       </c>
       <c r="D53" s="2">
-        <v>45905.052442129629</v>
+        <v>45917.468865740739</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C54" s="2">
-        <v>45903.531446759262</v>
+        <v>45916.623356481483</v>
       </c>
       <c r="D54" s="2">
-        <v>45905.010671296295</v>
+        <v>45918.0237037037</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2">
-        <v>45908.058252314811</v>
+        <v>45917.589189814818</v>
       </c>
       <c r="D55" s="2">
-        <v>45909.559004629627</v>
+        <v>45919.000393518516</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C56" s="2">
-        <v>45909.579212962963</v>
+        <v>45915.541979166665</v>
       </c>
       <c r="D56" s="2">
-        <v>45911.07608796296</v>
+        <v>45916.988449074073</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C57" s="2">
-        <v>45908.210324074076</v>
+        <v>45914.050219907411</v>
       </c>
       <c r="D57" s="2">
-        <v>45909.712118055555</v>
+        <v>45915.466817129629</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C58" s="2">
-        <v>45910.534502314818</v>
+        <v>45912.627604166664</v>
       </c>
       <c r="D58" s="2">
-        <v>45912.012048611112</v>
+        <v>45914.005208333336</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2">
-        <v>45901.03025462963</v>
+        <v>45910.054398148146</v>
       </c>
       <c r="D59" s="2">
-        <v>45902.500243055554</v>
+        <v>45911.384293981479</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C60" s="2">
-        <v>45906.573877314811</v>
+        <v>45915.259062500001</v>
       </c>
       <c r="D60" s="2">
-        <v>45908.008958333332</v>
+        <v>45916.545428240737</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2">
-        <v>45904.063692129632</v>
+        <v>45917.051562499997</v>
       </c>
       <c r="D61" s="2">
-        <v>45905.506157407406</v>
+        <v>45918.348865740743</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C62" s="2">
-        <v>45901.560231481482</v>
+        <v>45916.531759259262</v>
       </c>
       <c r="D62" s="2">
-        <v>45903.0312037037</v>
+        <v>45917.797986111109</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C63" s="2">
-        <v>45902.025509259256</v>
-      </c>
-      <c r="D63" s="2">
-        <v>45903.49627314815</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>45919.051585648151</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F63">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
         <v>7</v>
       </c>
-      <c r="B64" t="s">
-        <v>46</v>
-      </c>
       <c r="C64" s="2">
-        <v>45908.562800925924</v>
+        <v>45910.247546296298</v>
       </c>
       <c r="D64" s="2">
-        <v>45910.003263888888</v>
+        <v>45911.529826388891</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C65" s="2">
-        <v>45902.545347222222</v>
+        <v>45918.712372685186</v>
       </c>
       <c r="D65" s="2">
-        <v>45904.018020833333</v>
+        <v>45920.004004629627</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C66" s="2">
-        <v>45903.075219907405</v>
+        <v>45917.038738425923</v>
       </c>
       <c r="D66" s="2">
-        <v>45904.534386574072</v>
+        <v>45918.261030092595</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2">
-        <v>45906.065810185188</v>
+        <v>45918.264537037037</v>
       </c>
       <c r="D67" s="2">
-        <v>45907.50099537037</v>
+        <v>45919.504305555558</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C68" s="2">
-        <v>45903.062071759261</v>
+        <v>45918.257824074077</v>
       </c>
       <c r="D68" s="2">
-        <v>45904.471817129626</v>
+        <v>45919.535219907404</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2">
-        <v>45906.087141203701</v>
+        <v>45913.050844907404</v>
       </c>
       <c r="D69" s="2">
-        <v>45907.494085648148</v>
+        <v>45914.284895833334</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2">
-        <v>45903.625138888892</v>
+        <v>45915.250428240739</v>
       </c>
       <c r="D70" s="2">
-        <v>45905.008043981485</v>
+        <v>45916.492291666669</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2">
-        <v>45909.039467592593</v>
+        <v>45910.067824074074</v>
       </c>
       <c r="D71" s="2">
-        <v>45910.373379629629</v>
+        <v>45911.284560185188</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C72" s="2">
-        <v>45902.767638888887</v>
+        <v>45914.064189814817</v>
       </c>
       <c r="D72" s="2">
-        <v>45904.084664351853</v>
+        <v>45915.274594907409</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2">
-        <v>45907.194444444445</v>
+        <v>45918.558819444443</v>
       </c>
       <c r="D73" s="2">
-        <v>45908.530740740738</v>
+        <v>45919.759699074071</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2">
-        <v>45910.054398148146</v>
+        <v>45914.304675925923</v>
       </c>
       <c r="D74" s="2">
-        <v>45911.384293981479</v>
+        <v>45915.505648148152</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2">
-        <v>45907.24454861111</v>
+        <v>45916.350173611114</v>
       </c>
       <c r="D75" s="2">
-        <v>45908.508622685185</v>
+        <v>45917.544189814813</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C76" s="2">
-        <v>45910.029456018521</v>
+        <v>45910.356319444443</v>
       </c>
       <c r="D76" s="2">
-        <v>45911.331701388888</v>
+        <v>45911.500925925924</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C77" s="2">
-        <v>45906.810439814813</v>
+        <v>45917.046249999999</v>
       </c>
       <c r="D77" s="2">
-        <v>45908.090266203704</v>
+        <v>45918.227696759262</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2">
-        <v>45906.221956018519</v>
+        <v>45914.011388888888</v>
       </c>
       <c r="D78" s="2">
-        <v>45907.510810185187</v>
+        <v>45915.187569444446</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C79" s="2">
-        <v>45912.060983796298</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2">
-        <v>45913.348854166667</v>
-      </c>
+        <v>45915.035682870373</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45916.204282407409</v>
+      </c>
+      <c r="E79" s="2"/>
       <c r="F79">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2">
-        <v>45910.247546296298</v>
+        <v>45919.064259259256</v>
       </c>
       <c r="D80" s="2">
-        <v>45911.529826388891</v>
+        <v>45920.216261574074</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C81" s="2">
-        <v>45905.7655787037</v>
+        <v>45917.862303240741</v>
       </c>
       <c r="D81" s="2">
-        <v>45907.012766203705</v>
+        <v>45919.004907407405</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C82" s="2">
-        <v>45909.260914351849</v>
+        <v>45914.060752314814</v>
       </c>
       <c r="D82" s="2">
-        <v>45910.524594907409</v>
+        <v>45915.225474537037</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C83" s="2">
-        <v>45903.095196759263</v>
+        <v>45912.041076388887</v>
       </c>
       <c r="D83" s="2">
-        <v>45904.33935185185</v>
+        <v>45913.145925925928</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C84" s="2">
-        <v>45903.574432870373</v>
+        <v>45915.075706018521</v>
       </c>
       <c r="D84" s="2">
-        <v>45904.814143518517</v>
+        <v>45916.188900462963</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C85" s="2">
-        <v>45904.257928240739</v>
+        <v>45913.579629629632</v>
       </c>
       <c r="D85" s="2">
-        <v>45905.532916666663</v>
+        <v>45914.686932870369</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2">
-        <v>45903.346064814818</v>
+        <v>45914.151493055557</v>
       </c>
       <c r="D86" s="2">
-        <v>45904.573182870372</v>
+        <v>45915.287997685184</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C87" s="2">
-        <v>45903.550567129627</v>
+        <v>45914.045497685183</v>
       </c>
       <c r="D87" s="2">
-        <v>45904.756435185183</v>
+        <v>45915.202696759261</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2">
-        <v>45901.125694444447</v>
+        <v>45911.012094907404</v>
       </c>
       <c r="D88" s="2">
-        <v>45902.348506944443</v>
+        <v>45912.137696759259</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C89" s="2">
-        <v>45910.067824074074</v>
+        <v>45913.042430555557</v>
       </c>
       <c r="D89" s="2">
-        <v>45911.284560185188</v>
+        <v>45914.200810185182</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C90" s="2">
-        <v>45907.051342592589</v>
+        <v>45913.064467592594</v>
       </c>
       <c r="D90" s="2">
-        <v>45908.250138888892</v>
+        <v>45914.140983796293</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2">
-        <v>45909.373738425929</v>
-      </c>
-      <c r="D91" s="2">
-        <v>45910.524085648147</v>
-      </c>
-      <c r="E91" s="2"/>
+        <v>45919.267326388886</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F91">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2">
-        <v>45905.566099537034</v>
+        <v>45911.684641203705</v>
       </c>
       <c r="D92" s="2">
-        <v>45906.734594907408</v>
+        <v>45912.726527777777</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C93" s="2">
-        <v>45907.048576388886</v>
+        <v>45919.067708333336</v>
       </c>
       <c r="D93" s="2">
-        <v>45908.228101851855</v>
+        <v>45920.088587962964</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C94" s="2">
-        <v>45901.038946759261</v>
+        <v>45915.475578703707</v>
       </c>
       <c r="D94" s="2">
-        <v>45902.182835648149</v>
+        <v>45916.538958333331</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C95" s="2">
-        <v>45910.356319444443</v>
+        <v>45917.244652777779</v>
       </c>
       <c r="D95" s="2">
-        <v>45911.500925925924</v>
+        <v>45918.285451388889</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C96" s="2">
-        <v>45907.389652777776</v>
+        <v>45911.994386574072</v>
       </c>
       <c r="D96" s="2">
-        <v>45908.550567129627</v>
+        <v>45913.008622685185</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C97" s="2">
-        <v>45904.03466435185</v>
+        <v>45918.199444444443</v>
       </c>
       <c r="D97" s="2">
-        <v>45905.192037037035</v>
+        <v>45919.209988425922</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C98" s="2">
-        <v>45911.012094907404</v>
+        <v>45912.043020833335</v>
       </c>
       <c r="D98" s="2">
-        <v>45912.137696759259</v>
+        <v>45913.113923611112</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C99" s="2">
-        <v>45909.091203703705</v>
-      </c>
-      <c r="D99" s="2">
-        <v>45910.220127314817</v>
-      </c>
-      <c r="E99" s="2"/>
+        <v>45919.2965625</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F99">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C100" s="2">
-        <v>45906.575902777775</v>
+        <v>45915.055277777778</v>
       </c>
       <c r="D100" s="2">
-        <v>45907.67150462963</v>
+        <v>45916.095949074072</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C101" s="2">
-        <v>45912.041076388887</v>
+        <v>45915.483831018515</v>
       </c>
       <c r="D101" s="2">
-        <v>45913.145925925928</v>
+        <v>45916.511701388888</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C102" s="2">
-        <v>45907.094305555554</v>
+        <v>45914.036979166667</v>
       </c>
       <c r="D102" s="2">
-        <v>45908.213356481479</v>
+        <v>45915.079004629632</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C103" s="2">
-        <v>45906.042974537035</v>
+        <v>45919.036516203705</v>
       </c>
       <c r="D103" s="2">
-        <v>45907.169976851852</v>
+        <v>45920.041701388887</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C104" s="2">
-        <v>45901.470590277779</v>
+        <v>45910.196134259262</v>
       </c>
       <c r="D104" s="2">
-        <v>45902.562650462962</v>
+        <v>45911.248784722222</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
         <v>12</v>
       </c>
-      <c r="B105" t="s">
-        <v>53</v>
-      </c>
       <c r="C105" s="2">
-        <v>45907.134444444448</v>
+        <v>45913.021006944444</v>
       </c>
       <c r="D105" s="2">
-        <v>45908.224537037036</v>
+        <v>45914.078969907408</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B106" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C106" s="2">
-        <v>45902.027233796296</v>
+        <v>45911.244166666664</v>
       </c>
       <c r="D106" s="2">
-        <v>45903.087951388887</v>
+        <v>45912.265601851854</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C107" s="2">
-        <v>45901.259722222225</v>
+        <v>45911.504976851851</v>
       </c>
       <c r="D107" s="2">
-        <v>45902.373217592591</v>
+        <v>45912.543333333335</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C108" s="2">
-        <v>45909.039143518516</v>
+        <v>45915.525405092594</v>
       </c>
       <c r="D108" s="2">
-        <v>45910.102083333331</v>
+        <v>45916.54210648148</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C109" s="2">
-        <v>45909.514016203706</v>
+        <v>45917.243622685186</v>
       </c>
       <c r="D109" s="2">
-        <v>45910.611180555556</v>
+        <v>45918.209560185183</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2">
-        <v>45906.047337962962</v>
+        <v>45913.701620370368</v>
       </c>
       <c r="D110" s="2">
-        <v>45907.137569444443</v>
+        <v>45914.694907407407</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C111" s="2">
-        <v>45908.118969907409</v>
+        <v>45915.220127314817</v>
       </c>
       <c r="D111" s="2">
-        <v>45909.179571759261</v>
+        <v>45916.216979166667</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C112" s="2">
-        <v>45909.239444444444</v>
+        <v>45917.543113425927</v>
       </c>
       <c r="D112" s="2">
-        <v>45910.265706018516</v>
+        <v>45918.545127314814</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C113" s="2">
-        <v>45911.244166666664</v>
+        <v>45910.041087962964</v>
       </c>
       <c r="D113" s="2">
-        <v>45912.265601851854</v>
+        <v>45911.026550925926</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C114" s="2">
-        <v>45901.569282407407</v>
+        <v>45919.033101851855</v>
       </c>
       <c r="D114" s="2">
-        <v>45902.593414351853</v>
+        <v>45920.037638888891</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2">
-        <v>45911.504976851851</v>
+        <v>45915.020277777781</v>
       </c>
       <c r="D115" s="2">
-        <v>45912.543333333335</v>
+        <v>45916.002210648148</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C116" s="2">
-        <v>45906.5156712963</v>
+        <v>45913.029675925929</v>
       </c>
       <c r="D116" s="2">
-        <v>45907.565092592595</v>
+        <v>45914.000960648147</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C117" s="2">
-        <v>45908.567731481482</v>
+        <v>45919.028819444444</v>
       </c>
       <c r="D117" s="2">
-        <v>45909.606053240743</v>
+        <v>45920.000590277778</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C118" s="2">
-        <v>45908.19803240741</v>
+        <v>45913.030231481483</v>
       </c>
       <c r="D118" s="2">
-        <v>45909.213159722225</v>
+        <v>45914.003888888888</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
         <v>60</v>
       </c>
       <c r="C119" s="2">
-        <v>45907.620358796295</v>
+        <v>45918.378263888888</v>
       </c>
       <c r="D119" s="2">
-        <v>45908.656805555554</v>
+        <v>45919.401689814818</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C120" s="2">
-        <v>45905.577847222223</v>
+        <v>45918.039143518516</v>
       </c>
       <c r="D120" s="2">
-        <v>45906.623020833336</v>
+        <v>45919.000752314816</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C121" s="2">
-        <v>45910.196134259262</v>
+        <v>45915.572175925925</v>
       </c>
       <c r="D121" s="2">
-        <v>45911.248784722222</v>
+        <v>45916.543171296296</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C122" s="2">
-        <v>45901.158136574071</v>
+        <v>45910.584328703706</v>
       </c>
       <c r="D122" s="2">
-        <v>45902.190081018518</v>
+        <v>45911.616053240738</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C123" s="2">
-        <v>45912.043020833335</v>
+        <v>45919.277962962966</v>
       </c>
       <c r="D123" s="2">
-        <v>45913.113923611112</v>
+        <v>45920.264999999999</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C124" s="2">
-        <v>45903.08121527778</v>
+        <v>45916.019108796296</v>
       </c>
       <c r="D124" s="2">
-        <v>45904.113680555558</v>
+        <v>45917.00277777778</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C125" s="2">
-        <v>45911.684641203705</v>
+        <v>45916.579988425925</v>
       </c>
       <c r="D125" s="2">
-        <v>45912.726527777777</v>
+        <v>45917.561284722222</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C126" s="2">
-        <v>45911.994386574072</v>
+        <v>45911.556932870371</v>
       </c>
       <c r="D126" s="2">
-        <v>45913.008622685185</v>
+        <v>45912.543055555558</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C127" s="2">
-        <v>45901.148784722223</v>
+        <v>45912.03328703704</v>
       </c>
       <c r="D127" s="2">
-        <v>45902.167685185188</v>
+        <v>45913.003379629627</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C128" s="2">
-        <v>45903.038553240738</v>
+        <v>45913.032546296294</v>
       </c>
       <c r="D128" s="2">
-        <v>45904.044745370367</v>
+        <v>45914.002326388887</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C129" s="2">
-        <v>45912.328969907408</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2">
-        <v>45913.348854166667</v>
-      </c>
+        <v>45910.02920138889</v>
+      </c>
+      <c r="D129" s="2">
+        <v>45911.005185185182</v>
+      </c>
+      <c r="E129" s="2"/>
       <c r="F129">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C130" s="2">
-        <v>45908.570671296293</v>
+        <v>45911.034571759257</v>
       </c>
       <c r="D130" s="2">
-        <v>45909.609884259262</v>
+        <v>45912.001400462963</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="C131" s="2">
-        <v>45912.242094907408</v>
+        <v>45914.0625</v>
       </c>
       <c r="D131" s="2">
-        <v>45913.231030092589</v>
+        <v>45915.059525462966</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
@@ -2980,16 +2956,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C132" s="2">
-        <v>45904.702118055553</v>
+        <v>45919.031469907408</v>
       </c>
       <c r="D132" s="2">
-        <v>45905.667326388888</v>
+        <v>45920.003437500003</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132">
@@ -2998,16 +2974,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C133" s="2">
-        <v>45904.020173611112</v>
+        <v>45915.55263888889</v>
       </c>
       <c r="D133" s="2">
-        <v>45905.008136574077</v>
+        <v>45916.542962962965</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133">
@@ -3016,16 +2992,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C134" s="2">
-        <v>45902.329155092593</v>
+        <v>45914.043333333335</v>
       </c>
       <c r="D134" s="2">
-        <v>45903.310069444444</v>
+        <v>45915.064780092594</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134">
@@ -3034,16 +3010,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C135" s="2">
-        <v>45906.520752314813</v>
+        <v>45915.540833333333</v>
       </c>
       <c r="D135" s="2">
-        <v>45907.527858796297</v>
+        <v>45916.513043981482</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135">
@@ -3052,16 +3028,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C136" s="2">
-        <v>45902.031307870369</v>
+        <v>45914.019074074073</v>
       </c>
       <c r="D136" s="2">
-        <v>45903.015347222223</v>
+        <v>45915.000347222223</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136">
@@ -3070,16 +3046,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C137" s="2">
-        <v>45907.041504629633</v>
+        <v>45917.562847222223</v>
       </c>
       <c r="D137" s="2">
-        <v>45908.003831018519</v>
+        <v>45918.543981481482</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137">
@@ -3088,16 +3064,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C138" s="2">
-        <v>45908.923564814817</v>
+        <v>45910.510555555556</v>
       </c>
       <c r="D138" s="2">
-        <v>45909.953576388885</v>
+        <v>45911.524016203701</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138">
@@ -3106,16 +3082,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B139" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C139" s="2">
-        <v>45909.532372685186</v>
+        <v>45912.242094907408</v>
       </c>
       <c r="D139" s="2">
-        <v>45910.502280092594</v>
+        <v>45913.231030092589</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139">
@@ -3124,16 +3100,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C140" s="2">
-        <v>45910.510555555556</v>
+        <v>45913.530856481484</v>
       </c>
       <c r="D140" s="2">
-        <v>45911.524016203701</v>
+        <v>45914.507928240739</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140">
@@ -3142,397 +3118,37 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B141" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C141" s="2">
-        <v>45904.531631944446</v>
-      </c>
-      <c r="D141" s="2">
-        <v>45905.530775462961</v>
-      </c>
-      <c r="E141" s="2"/>
+        <v>45919.362210648149</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F141">
         <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B142" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C142" s="2">
-        <v>45909.029490740744</v>
-      </c>
-      <c r="D142" s="2">
-        <v>45910.00445601852</v>
-      </c>
-      <c r="E142" s="2"/>
+        <v>45919.351388888892</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2">
+        <v>45920.341481481482</v>
+      </c>
       <c r="F142">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143" t="s">
-        <v>9</v>
-      </c>
-      <c r="B143" t="s">
-        <v>35</v>
-      </c>
-      <c r="C143" s="2">
-        <v>45903.551539351851</v>
-      </c>
-      <c r="D143" s="2">
-        <v>45904.543136574073</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
-        <v>9</v>
-      </c>
-      <c r="B144" t="s">
-        <v>35</v>
-      </c>
-      <c r="C144" s="2">
-        <v>45910.02920138889</v>
-      </c>
-      <c r="D144" s="2">
-        <v>45911.005185185182</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="F144">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
-        <v>9</v>
-      </c>
-      <c r="B145" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="2">
-        <v>45911.034571759257</v>
-      </c>
-      <c r="D145" s="2">
-        <v>45912.001400462963</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" t="s">
-        <v>9</v>
-      </c>
-      <c r="B146" t="s">
-        <v>74</v>
-      </c>
-      <c r="C146" s="2">
-        <v>45912.03328703704</v>
-      </c>
-      <c r="D146" s="2">
-        <v>45913.003379629627</v>
-      </c>
-      <c r="E146" s="2"/>
-      <c r="F146">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" t="s">
-        <v>9</v>
-      </c>
-      <c r="B147" t="s">
-        <v>67</v>
-      </c>
-      <c r="C147" s="2">
-        <v>45907.019560185188</v>
-      </c>
-      <c r="D147" s="2">
-        <v>45908.010844907411</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
-        <v>9</v>
-      </c>
-      <c r="B148" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148" s="2">
-        <v>45911.556932870371</v>
-      </c>
-      <c r="D148" s="2">
-        <v>45912.543055555558</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" s="2">
-        <v>45903.531400462962</v>
-      </c>
-      <c r="D149" s="2">
-        <v>45904.523900462962</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" t="s">
-        <v>7</v>
-      </c>
-      <c r="B150" t="s">
-        <v>58</v>
-      </c>
-      <c r="C150" s="2">
-        <v>45905.028263888889</v>
-      </c>
-      <c r="D150" s="2">
-        <v>45906.015115740738</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="F150">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" t="s">
-        <v>41</v>
-      </c>
-      <c r="C151" s="2">
-        <v>45909.531261574077</v>
-      </c>
-      <c r="D151" s="2">
-        <v>45910.523888888885</v>
-      </c>
-      <c r="E151" s="2"/>
-      <c r="F151">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" t="s">
-        <v>7</v>
-      </c>
-      <c r="B152" t="s">
-        <v>18</v>
-      </c>
-      <c r="C152" s="2">
-        <v>45901.116909722223</v>
-      </c>
-      <c r="D152" s="2">
-        <v>45902.102569444447</v>
-      </c>
-      <c r="E152" s="2"/>
-      <c r="F152">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" t="s">
-        <v>7</v>
-      </c>
-      <c r="B153" t="s">
-        <v>63</v>
-      </c>
-      <c r="C153" s="2">
-        <v>45906.993020833332</v>
-      </c>
-      <c r="D153" s="2">
-        <v>45907.99009259259</v>
-      </c>
-      <c r="E153" s="2"/>
-      <c r="F153">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" t="s">
-        <v>7</v>
-      </c>
-      <c r="B154" t="s">
-        <v>20</v>
-      </c>
-      <c r="C154" s="2">
-        <v>45901.038090277776</v>
-      </c>
-      <c r="D154" s="2">
-        <v>45902.001168981478</v>
-      </c>
-      <c r="E154" s="2"/>
-      <c r="F154">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" t="s">
-        <v>7</v>
-      </c>
-      <c r="B155" t="s">
-        <v>20</v>
-      </c>
-      <c r="C155" s="2">
-        <v>45905.558854166666</v>
-      </c>
-      <c r="D155" s="2">
-        <v>45906.555868055555</v>
-      </c>
-      <c r="E155" s="2"/>
-      <c r="F155">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" t="s">
-        <v>7</v>
-      </c>
-      <c r="B156" t="s">
-        <v>39</v>
-      </c>
-      <c r="C156" s="2">
-        <v>45904.038356481484</v>
-      </c>
-      <c r="D156" s="2">
-        <v>45905.000960648147</v>
-      </c>
-      <c r="E156" s="2"/>
-      <c r="F156">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" t="s">
-        <v>32</v>
-      </c>
-      <c r="C157" s="2">
-        <v>45906.572326388887</v>
-      </c>
-      <c r="D157" s="2">
-        <v>45907.549814814818</v>
-      </c>
-      <c r="E157" s="2"/>
-      <c r="F157">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158" t="s">
-        <v>7</v>
-      </c>
-      <c r="B158" t="s">
-        <v>32</v>
-      </c>
-      <c r="C158" s="2">
-        <v>45910.041087962964</v>
-      </c>
-      <c r="D158" s="2">
-        <v>45911.026550925926</v>
-      </c>
-      <c r="E158" s="2"/>
-      <c r="F158">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A159" t="s">
-        <v>7</v>
-      </c>
-      <c r="B159" t="s">
-        <v>54</v>
-      </c>
-      <c r="C159" s="2">
-        <v>45903.040659722225</v>
-      </c>
-      <c r="D159" s="2">
-        <v>45904.012349537035</v>
-      </c>
-      <c r="E159" s="2"/>
-      <c r="F159">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" t="s">
-        <v>7</v>
-      </c>
-      <c r="B160" t="s">
-        <v>54</v>
-      </c>
-      <c r="C160" s="2">
-        <v>45905.033067129632</v>
-      </c>
-      <c r="D160" s="2">
-        <v>45906.00104166667</v>
-      </c>
-      <c r="E160" s="2"/>
-      <c r="F160">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A161" t="s">
-        <v>7</v>
-      </c>
-      <c r="B161" t="s">
-        <v>54</v>
-      </c>
-      <c r="C161" s="2">
-        <v>45910.584328703706</v>
-      </c>
-      <c r="D161" s="2">
-        <v>45911.616053240738</v>
-      </c>
-      <c r="E161" s="2"/>
-      <c r="F161">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A162" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" t="s">
-        <v>34</v>
-      </c>
-      <c r="C162" s="2">
-        <v>45901.538043981483</v>
-      </c>
-      <c r="D162" s="2">
-        <v>45902.527268518519</v>
-      </c>
-      <c r="E162" s="2"/>
-      <c r="F162">
         <v>24</v>
       </c>
     </row>
